--- a/participants/participant_41/participant_41_task_orders.xlsx
+++ b/participants/participant_41/participant_41_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731301215687" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731339732258" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731339791632" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731340381684" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731340991616" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912666328957" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912683587701" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912683607008" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912684132128" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912684746692" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873130086566.csv</t>
+          <t>go_stims-16502912665885005.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731301045659.csv</t>
+          <t>GNG_stims-16502912666080482.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1649873130105566.csv</t>
+          <t>go_stims-1650291266609117.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731301205997.csv</t>
+          <t>GNG_stims-1650291266631895.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731317361965.csv</t>
+          <t>TB-16502912681978135.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498731329461927.csv</t>
+          <t>OB-16502912676037343.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498731322761629.csv</t>
+          <t>ZB-match_2-16502912669404364.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498731303965342.csv</t>
+          <t>ZB-match_4-16502912667027833.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498731313631587.csv</t>
+          <t>OB-16502912680881257.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498731306685317.csv</t>
+          <t>TB-16502912681246765.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16498731339591944.csv</t>
+          <t>OB-16502912678997247.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16498731307525.csv</t>
+          <t>ZB-match_4-16502912671291032.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498731307024996.csv</t>
+          <t>TB-16502912683378227.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731340051622.csv</t>
+          <t>MM_stims-16502912683741748.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731339801648.csv</t>
+          <t>ZM_stims-1650291268363691.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731340211945.csv</t>
+          <t>MM_stims-1650291268396295.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731340061605.csv</t>
+          <t>ZM_stims-16502912683751812.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731340371964.csv</t>
+          <t>MM_stims-16502912684122114.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731340221646.csv</t>
+          <t>ZM_stims-16502912683972573.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731340541608.csv</t>
+          <t>vSAT_stims-16502912684587746.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731340831616.csv</t>
+          <t>SAT_stims-16502912684163566.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731340421607.csv</t>
+          <t>vSAT_stims-1650291268443869.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731340681949.csv</t>
+          <t>SAT_stims-1650291268428232.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_41/participant_41_task_orders.xlsx
+++ b/participants/participant_41/participant_41_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912666328957" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912683587701" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912683607008" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912684132128" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912684746692" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477877952398" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778805413942" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778805423946" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477880590393" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778806533933" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912665885005.csv</t>
+          <t>go_stims-16504778779193935.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912666080482.csv</t>
+          <t>GNG_stims-16504778779354267.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291266609117.csv</t>
+          <t>go_stims-16504778779363961.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291266631895.csv</t>
+          <t>GNG_stims-1650477877952398.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16502912681978135.csv</t>
+          <t>ZB-match_5-165047787805843.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502912676037343.csv</t>
+          <t>ZB-match_1-1650477878005424.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912669404364.csv</t>
+          <t>OB-16504778782803905.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502912667027833.csv</t>
+          <t>TB-16504778796104274.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912680881257.csv</t>
+          <t>OB-16504778785763981.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502912681246765.csv</t>
+          <t>TB-16504778800234234.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912678997247.csv</t>
+          <t>ZB-match_6-16504778781894267.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502912671291032.csv</t>
+          <t>OB-16504778784133923.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912683378227.csv</t>
+          <t>TB-16504778805184252.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912683741748.csv</t>
+          <t>MM_stims-16504778805573933.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291268363691.csv</t>
+          <t>ZM_stims-16504778805433948.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291268396295.csv</t>
+          <t>MM_stims-16504778805734258.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912683751812.csv</t>
+          <t>ZM_stims-16504778805573933.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912684122114.csv</t>
+          <t>MM_stims-16504778805894253.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912683972573.csv</t>
+          <t>ZM_stims-16504778805734258.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912684587746.csv</t>
+          <t>SAT_stims-1650477880605426.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912684163566.csv</t>
+          <t>SAT_stims-16504778805934374.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291268443869.csv</t>
+          <t>vSAT_stims-16504778806214263.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291268428232.csv</t>
+          <t>vSAT_stims-16504778806374266.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_41/participant_41_task_orders.xlsx
+++ b/participants/participant_41/participant_41_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477877952398" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778805413942" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778805423946" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477880590393" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778806533933" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961770360882" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961790687442" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961790687442" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961791327393" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961792127416" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778779193935.csv</t>
+          <t>go_stims-16509961769960325.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778779354267.csv</t>
+          <t>GNG_stims-1650996177019994.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778779363961.csv</t>
+          <t>go_stims-1650996177019994.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477877952398.csv</t>
+          <t>GNG_stims-16509961770360882.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-165047787805843.csv</t>
+          <t>ZB-match_0-1650996177684742.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-1650477878005424.csv</t>
+          <t>TB-16509961790527065.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778782803905.csv</t>
+          <t>TB-16509961790287454.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16504778796104274.csv</t>
+          <t>OB-16509961786287441.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504778785763981.csv</t>
+          <t>OB-16509961780927422.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778800234234.csv</t>
+          <t>TB-16509961786847062.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_6-16504778781894267.csv</t>
+          <t>ZB-match_7-16509961772767105.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778784133923.csv</t>
+          <t>OB-16509961783407044.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504778805184252.csv</t>
+          <t>ZB-match_7-1650996177788743.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778805573933.csv</t>
+          <t>MM_stims-1650996179100739.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778805433948.csv</t>
+          <t>ZM_stims-16509961790767055.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778805734258.csv</t>
+          <t>MM_stims-16509961791167068.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778805573933.csv</t>
+          <t>ZM_stims-1650996179100739.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778805894253.csv</t>
+          <t>MM_stims-16509961791327393.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778805734258.csv</t>
+          <t>ZM_stims-16509961791167068.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477880605426.csv</t>
+          <t>vSAT_stims-16509961791967418.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778805934374.csv</t>
+          <t>SAT_stims-16509961791327393.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778806214263.csv</t>
+          <t>SAT_stims-16509961791647093.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778806374266.csv</t>
+          <t>vSAT_stims-16509961791807442.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_41/participant_41_task_orders.xlsx
+++ b/participants/participant_41/participant_41_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961770360882" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961790687442" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961790687442" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961791327393" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961792127416" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687794108207" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168780956945" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687809579477" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168781015208" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687810926366" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961769960325.csv</t>
+          <t>go_stims-1651168779367661.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996177019994.csv</t>
+          <t>GNG_stims-16511687793949807.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996177019994.csv</t>
+          <t>go_stims-16511687793959787.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961770360882.csv</t>
+          <t>GNG_stims-1651168779409823.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650996177684742.csv</t>
+          <t>TB-16511687806125712.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16509961790527065.csv</t>
+          <t>ZB-match_0-1651168779997432.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509961790287454.csv</t>
+          <t>OB-1651168780377066.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509961786287441.csv</t>
+          <t>ZB-match_0-16511687797617807.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509961780927422.csv</t>
+          <t>TB-1651168780906191.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961786847062.csv</t>
+          <t>OB-16511687804901493.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_7-16509961772767105.csv</t>
+          <t>TB-16511687809443426.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961783407044.csv</t>
+          <t>OB-16511687801603131.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650996177788743.csv</t>
+          <t>ZB-match_5-16511687795500922.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996179100739.csv</t>
+          <t>MM_stims-16511687809721906.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961790767055.csv</t>
+          <t>ZM_stims-16511687809589477.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961791167068.csv</t>
+          <t>MM_stims-16511687809992924.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996179100739.csv</t>
+          <t>ZM_stims-1651168780973162.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961791327393.csv</t>
+          <t>MM_stims-16511687810142097.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961791167068.csv</t>
+          <t>ZM_stims-16511687810002856.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961791967418.csv</t>
+          <t>SAT_stims-16511687810219784.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961791327393.csv</t>
+          <t>vSAT_stims-1651168781061874.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961791647093.csv</t>
+          <t>vSAT_stims-16511687810782502.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961791807442.csv</t>
+          <t>SAT_stims-1651168781046031.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_41/participant_41_task_orders.xlsx
+++ b/participants/participant_41/participant_41_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687794108207" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168780956945" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687809579477" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168781015208" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687810926366" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556020993557" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512556048793523" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512556048803525" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512556049273565" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512556050063517" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168779367661.csv</t>
+          <t>go_stims-16512556020623538.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687793949807.csv</t>
+          <t>GNG_stims-1651255602082353.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687793959787.csv</t>
+          <t>go_stims-16512556020833547.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168779409823.csv</t>
+          <t>GNG_stims-16512556020983543.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687806125712.csv</t>
+          <t>OB-16512556037083514.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-1651168779997432.csv</t>
+          <t>ZB-match_8-16512556025543523.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1651168780377066.csv</t>
+          <t>OB-16512556030483515.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687797617807.csv</t>
+          <t>ZB-match_1-16512556026583521.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1651168780906191.csv</t>
+          <t>TB-16512556046453533.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511687804901493.csv</t>
+          <t>TB-1651255604851354.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16511687809443426.csv</t>
+          <t>OB-16512556038393536.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16511687801603131.csv</t>
+          <t>TB-16512556046193535.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687795500922.csv</t>
+          <t>ZB-match_6-16512556025793526.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687809721906.csv</t>
+          <t>MM_stims-16512556048953514.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687809589477.csv</t>
+          <t>ZM_stims-1651255604882352.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687809992924.csv</t>
+          <t>MM_stims-1651255604910354.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168780973162.csv</t>
+          <t>ZM_stims-16512556048953514.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687810142097.csv</t>
+          <t>MM_stims-1651255604926352.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687810002856.csv</t>
+          <t>ZM_stims-16512556049113548.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687810219784.csv</t>
+          <t>vSAT_stims-16512556049903557.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168781061874.csv</t>
+          <t>vSAT_stims-16512556049743543.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687810782502.csv</t>
+          <t>SAT_stims-16512556049583514.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168781046031.csv</t>
+          <t>SAT_stims-16512556049323535.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_41/participant_41_task_orders.xlsx
+++ b/participants/participant_41/participant_41_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556020993557" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512556048793523" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512556048803525" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512556049273565" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512556050063517" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515890301659896" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RS_TO-16515890301659896" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GNG_TO-16515890301972394" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-16515890311255689" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TOL_TO-16515890311724446" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512556020623538.csv</t>
+          <t>vSAT_stims-16515890301503649.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255602082353.csv</t>
+          <t>vSAT_stims-16515890301347415.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512556020833547.csv</t>
+          <t>SAT_stims-1651589030103525.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556020983543.csv</t>
+          <t>SAT_stims-16515890301191514.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515890301659896.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890301816146.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-16515890301816146.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890301972394.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512556037083514.csv</t>
+          <t>TB-1651589031063068.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_8-16512556025543523.csv</t>
+          <t>OB-1651589030920231.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512556030483515.csv</t>
+          <t>ZB-match_3-16515890302995455.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512556026583521.csv</t>
+          <t>TB-16515890310162303.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16512556046453533.csv</t>
+          <t>ZB-match_1-1651589030462585.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1651255604851354.csv</t>
+          <t>ZB-match_0-16515890302597404.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512556038393536.csv</t>
+          <t>OB-16515890306210713.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16512556046193535.csv</t>
+          <t>TB-16515890311099427.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512556025793526.csv</t>
+          <t>OB-16515890309849405.csv</t>
         </is>
       </c>
     </row>
@@ -605,53 +717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -678,7 +744,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512556048953514.csv</t>
+          <t>MM_stims-16515890311411932.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +754,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255604882352.csv</t>
+          <t>ZM_stims-16515890311255689.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +764,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651255604910354.csv</t>
+          <t>MM_stims-16515890311568205.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +774,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556048953514.csv</t>
+          <t>ZM_stims-16515890311411932.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +784,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651255604926352.csv</t>
+          <t>MM_stims-16515890311724446.csv</t>
         </is>
       </c>
     </row>
@@ -728,73 +794,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556049113548.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512556049903557.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512556049743543.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512556049583514.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512556049323535.csv</t>
+          <t>ZM_stims-16515890311568205.csv</t>
         </is>
       </c>
     </row>
